--- a/MarsFramework/ExcelData/TestData.xlsx
+++ b/MarsFramework/ExcelData/TestData.xlsx
@@ -1,31 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Internship_2020\MarsQA_2\marsframework\MarsFramework\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Internship_2020\Advance Task\Nunit\marsframework\MarsFramework\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7BEEE8-7785-4306-8BD6-0634F3605309}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63DE7032-D670-4222-A53C-85DFF4D268FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="3" r:id="rId1"/>
     <sheet name="SignIn" sheetId="1" r:id="rId2"/>
-    <sheet name="Profile" sheetId="2" r:id="rId3"/>
-    <sheet name="SkillDetails" sheetId="4" r:id="rId4"/>
-    <sheet name="ManageListings" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="Chat" sheetId="12" r:id="rId3"/>
+    <sheet name="Description" sheetId="13" r:id="rId4"/>
+    <sheet name="Profile" sheetId="2" r:id="rId5"/>
+    <sheet name="SkillDetails" sheetId="4" r:id="rId6"/>
+    <sheet name="ManageListings" sheetId="5" r:id="rId7"/>
+    <sheet name="Language" sheetId="6" r:id="rId8"/>
+    <sheet name="Skill" sheetId="7" r:id="rId9"/>
+    <sheet name="Education" sheetId="8" r:id="rId10"/>
+    <sheet name="Certificate" sheetId="9" r:id="rId11"/>
+    <sheet name="Search_Skill" sheetId="10" r:id="rId12"/>
+    <sheet name="Change_Password" sheetId="11" r:id="rId13"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="99">
   <si>
     <t>Url</t>
   </si>
@@ -210,28 +217,118 @@
     <t>Testing123</t>
   </si>
   <si>
+    <t>StartTime</t>
+  </si>
+  <si>
+    <t>EndTime</t>
+  </si>
+  <si>
+    <t>Hourly basis service</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Select day</t>
+  </si>
+  <si>
+    <t>Writing &amp; Translation</t>
+  </si>
+  <si>
+    <t>Creative Writing</t>
+  </si>
+  <si>
+    <t>Hemali@2910</t>
+  </si>
+  <si>
+    <t>Hindi</t>
+  </si>
+  <si>
+    <t>EditLanguage</t>
+  </si>
+  <si>
+    <t>Painting</t>
+  </si>
+  <si>
+    <t>EditSkill</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>Collage</t>
+  </si>
+  <si>
+    <t>GIT</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>EditCollage</t>
+  </si>
+  <si>
+    <t>AIT</t>
+  </si>
+  <si>
+    <t>EditDegree</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>CertificateFrom</t>
+  </si>
+  <si>
+    <t>CISCO</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>EditCertificate</t>
+  </si>
+  <si>
+    <t>EditCertificateFrom</t>
+  </si>
+  <si>
+    <t>search_Skill</t>
+  </si>
+  <si>
+    <t>searchskill</t>
+  </si>
+  <si>
+    <t>selenium</t>
+  </si>
+  <si>
+    <t>searchuser</t>
+  </si>
+  <si>
+    <t>hemalee sojitra</t>
+  </si>
+  <si>
+    <t>Current_Password</t>
+  </si>
+  <si>
+    <t>New_Password</t>
+  </si>
+  <si>
+    <t>Confirm_Password</t>
+  </si>
+  <si>
     <t>hemali@2910</t>
   </si>
   <si>
-    <t>StartTime</t>
-  </si>
-  <si>
-    <t>EndTime</t>
-  </si>
-  <si>
-    <t>Hourly basis service</t>
-  </si>
-  <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>Select day</t>
-  </si>
-  <si>
-    <t>Writing &amp; Translation</t>
-  </si>
-  <si>
-    <t>Creative Writing</t>
+    <t>EnterText</t>
+  </si>
+  <si>
+    <t>Hey Specflow</t>
+  </si>
+  <si>
+    <t>wq</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book.</t>
   </si>
 </sst>
 </file>
@@ -289,7 +386,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
@@ -299,6 +396,9 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -695,12 +795,193 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65EBB194-4BA9-4E67-BE84-069437835BED}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{822F18DE-1A89-4A3A-BEFA-D87A2D317EAC}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA07ACA-18EA-49DE-B3C4-6AB518554344}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFDB2246-B46C-4A82-973B-E621C596FBA7}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{EA7C120E-1CB6-49F3-B1F1-620B664ADB63}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{6AECE91C-129E-4240-91C0-A008AF9A4D28}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{8284C6A9-CF2A-4C2D-AB56-00F2D97CE9F7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -729,7 +1010,7 @@
         <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -743,6 +1024,65 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC621FBD-DC02-4FFD-AF72-03359DA7FC89}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD5A18B-557E-4C46-AA42-15D5655047D3}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -831,11 +1171,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5318C752-1EA9-46B3-84D6-1FD4DE9A2CBF}">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
@@ -883,10 +1223,10 @@
         <v>40</v>
       </c>
       <c r="J1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>63</v>
       </c>
       <c r="L1" t="s">
         <v>44</v>
@@ -918,7 +1258,7 @@
         <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G2" t="s">
         <v>54</v>
@@ -960,7 +1300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{937377EC-4336-4F35-9A85-D326635D076E}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
@@ -1006,7 +1346,7 @@
         <v>38</v>
       </c>
       <c r="H1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>39</v>
@@ -1044,10 +1384,10 @@
         <v>59</v>
       </c>
       <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
         <v>67</v>
-      </c>
-      <c r="D2" t="s">
-        <v>68</v>
       </c>
       <c r="E2" t="s">
         <v>60</v>
@@ -1059,7 +1399,7 @@
         <v>54</v>
       </c>
       <c r="H2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I2" s="3">
         <v>44123</v>
@@ -1111,16 +1451,64 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8A26A70-10D4-4E96-BF40-FC7FF0101EF0}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:I11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76B9FA7A-A546-424B-90C3-722A10E30329}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/MarsFramework/ExcelData/TestData.xlsx
+++ b/MarsFramework/ExcelData/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Internship_2020\Advance Task\Nunit\marsframework\MarsFramework\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63DE7032-D670-4222-A53C-85DFF4D268FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850BE863-B3C2-4AC7-B538-AE7A3E7665B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="105">
   <si>
     <t>Url</t>
   </si>
@@ -329,6 +329,24 @@
   </si>
   <si>
     <t>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book.</t>
+  </si>
+  <si>
+    <t>Gujarati</t>
+  </si>
+  <si>
+    <t>Marathi</t>
+  </si>
+  <si>
+    <t>Speaking</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>ISTQB2</t>
+  </si>
+  <si>
+    <t>Chinese</t>
   </si>
 </sst>
 </file>
@@ -797,10 +815,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65EBB194-4BA9-4E67-BE84-069437835BED}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -833,6 +851,20 @@
         <v>80</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -840,10 +872,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{822F18DE-1A89-4A3A-BEFA-D87A2D317EAC}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -880,6 +912,20 @@
       </c>
       <c r="D2" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1058,7 +1104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD5A18B-557E-4C46-AA42-15D5655047D3}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -1453,13 +1499,17 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8A26A70-10D4-4E96-BF40-FC7FF0101EF0}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1475,6 +1525,30 @@
       </c>
       <c r="B2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1484,10 +1558,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76B9FA7A-A546-424B-90C3-722A10E30329}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1508,6 +1582,22 @@
         <v>73</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MarsFramework/ExcelData/TestData.xlsx
+++ b/MarsFramework/ExcelData/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Internship_2020\Advance Task\Nunit\marsframework\MarsFramework\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850BE863-B3C2-4AC7-B538-AE7A3E7665B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A585AC7-99AC-41E3-9574-9037C507BDE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="120">
   <si>
     <t>Url</t>
   </si>
@@ -337,16 +337,61 @@
     <t>Marathi</t>
   </si>
   <si>
-    <t>Speaking</t>
-  </si>
-  <si>
     <t>Google</t>
   </si>
   <si>
-    <t>ISTQB2</t>
-  </si>
-  <si>
     <t>Chinese</t>
+  </si>
+  <si>
+    <t>walking</t>
+  </si>
+  <si>
+    <t>dancing</t>
+  </si>
+  <si>
+    <t>sand_Painting</t>
+  </si>
+  <si>
+    <t>Silver oak</t>
+  </si>
+  <si>
+    <t>KIT</t>
+  </si>
+  <si>
+    <t>MBA</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>BI</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Newzealand</t>
+  </si>
+  <si>
+    <t>dancing_</t>
+  </si>
+  <si>
+    <t>telugu</t>
+  </si>
+  <si>
+    <t>corian</t>
+  </si>
+  <si>
+    <t>russian</t>
+  </si>
+  <si>
+    <t>AddLangauge</t>
+  </si>
+  <si>
+    <t>Certificatename</t>
+  </si>
+  <si>
+    <t>Add_Skill</t>
   </si>
 </sst>
 </file>
@@ -818,7 +863,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -845,10 +890,10 @@
         <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -859,10 +904,10 @@
         <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -875,7 +920,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -888,7 +933,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="B1" t="s">
         <v>81</v>
@@ -908,24 +953,24 @@
         <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1501,8 +1546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8A26A70-10D4-4E96-BF40-FC7FF0101EF0}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1513,7 +1558,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s">
         <v>70</v>
@@ -1524,7 +1569,7 @@
         <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1532,7 +1577,7 @@
         <v>99</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1540,7 +1585,7 @@
         <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1548,7 +1593,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1560,15 +1605,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76B9FA7A-A546-424B-90C3-722A10E30329}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>119</v>
       </c>
       <c r="B1" t="s">
         <v>72</v>
@@ -1579,7 +1625,7 @@
         <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1587,15 +1633,15 @@
         <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
